--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/126.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/126.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1383979936648228</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.305864596476544</v>
+        <v>-1.24791966789265</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06808546663923958</v>
+        <v>-0.1080995446186834</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1582886977436699</v>
+        <v>-0.1764341754174832</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1180199510670467</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.411128223638697</v>
+        <v>-1.328841373283174</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1857200812756625</v>
+        <v>-0.2018682131611128</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1643172363110319</v>
+        <v>-0.1777423785069374</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09142453165624546</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.546901015708479</v>
+        <v>-1.444560404824325</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1786505284194826</v>
+        <v>-0.2206312911773804</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1948395416514783</v>
+        <v>-0.1820159392690272</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05666627384788186</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.703482413169891</v>
+        <v>-1.613715736444643</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2052657450686573</v>
+        <v>-0.2261327523839244</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1749639069899382</v>
+        <v>-0.1725971690345751</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.008514685324340262</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.795669849629867</v>
+        <v>-1.732062854549429</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2226111163886526</v>
+        <v>-0.2335833777918315</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1790199205864825</v>
+        <v>-0.186527487869935</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.05780661467235138</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.648924796156906</v>
+        <v>-1.581304128874561</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1248842574717698</v>
+        <v>-0.1528091372584895</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1796404410251187</v>
+        <v>-0.1638982025089411</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1456388075902855</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.437184241869054</v>
+        <v>-1.399538361893064</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.07191955292596582</v>
+        <v>-0.07441623516141969</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1697588355458486</v>
+        <v>-0.1469309836444911</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2558953014080479</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.244459353917196</v>
+        <v>-1.157731037269129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06084992022081671</v>
+        <v>0.04652100825663874</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1666445529679404</v>
+        <v>-0.144774492614219</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3885914392753981</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9032592555046517</v>
+        <v>-0.7888907684475914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1471562829706117</v>
+        <v>0.1413058702703406</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1518805466726716</v>
+        <v>-0.1247192720374971</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5468251975733421</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5553166550082905</v>
+        <v>-0.4302095142425969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.130648979254798</v>
+        <v>0.1499683355937019</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09045778353623357</v>
+        <v>-0.06198830581160485</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.7319650539811378</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.005750173445983587</v>
+        <v>0.08652924604371891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1014509375328058</v>
+        <v>0.1390938974126139</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03353242043991496</v>
+        <v>0.04633412210100243</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.9407831932388747</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4829790242643398</v>
+        <v>0.591478117995947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03729204427400486</v>
+        <v>0.07238138004281361</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1741423518348772</v>
+        <v>0.1880858111030553</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.162293047840455</v>
       </c>
       <c r="E14" t="n">
-        <v>1.072708508711363</v>
+        <v>1.15058163368807</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1271049906180419</v>
+        <v>-0.0351759826701575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2739935807240322</v>
+        <v>0.3039946488960241</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.386319079789977</v>
       </c>
       <c r="E15" t="n">
-        <v>1.710342171021101</v>
+        <v>1.791244895786443</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.281934330370364</v>
+        <v>-0.179620000351846</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5024808866146072</v>
+        <v>0.5048009030310612</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.604542594593752</v>
       </c>
       <c r="E16" t="n">
-        <v>2.376274485428831</v>
+        <v>2.466885069950625</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4353751643882319</v>
+        <v>-0.3626457888357968</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6337508903720265</v>
+        <v>0.6393034532617523</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.814545326710705</v>
       </c>
       <c r="E17" t="n">
-        <v>3.04220387974038</v>
+        <v>3.100351755008909</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5732723264302857</v>
+        <v>-0.5012642146347597</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7783087918048058</v>
+        <v>0.7905512950470753</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.014450903726001</v>
       </c>
       <c r="E18" t="n">
-        <v>3.631717277069949</v>
+        <v>3.713564652950109</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7302464768281527</v>
+        <v>-0.6379466166651775</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9499695659491234</v>
+        <v>0.9562025112492126</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.20134488764192</v>
       </c>
       <c r="E19" t="n">
-        <v>4.125861793149452</v>
+        <v>4.233149046965606</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9167369594318299</v>
+        <v>-0.7969589941979529</v>
       </c>
       <c r="G19" t="n">
-        <v>1.064029982859002</v>
+        <v>1.085818280519632</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.367883928088526</v>
       </c>
       <c r="E20" t="n">
-        <v>4.582842245122966</v>
+        <v>4.732781883818835</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.093894814638419</v>
+        <v>-0.9840247357494482</v>
       </c>
       <c r="G20" t="n">
-        <v>1.252858002456224</v>
+        <v>1.242607004809954</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.505619066048898</v>
       </c>
       <c r="E21" t="n">
-        <v>5.086808504710013</v>
+        <v>5.226685491963338</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.30799626668927</v>
+        <v>-1.175948057299397</v>
       </c>
       <c r="G21" t="n">
-        <v>1.407442054129273</v>
+        <v>1.408912322556818</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.606679440877945</v>
       </c>
       <c r="E22" t="n">
-        <v>5.47713046109309</v>
+        <v>5.616801581565597</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.483720354670587</v>
+        <v>-1.363517515442255</v>
       </c>
       <c r="G22" t="n">
-        <v>1.527031673159423</v>
+        <v>1.527313462440968</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.667540894549508</v>
       </c>
       <c r="E23" t="n">
-        <v>5.716934599736298</v>
+        <v>5.882324467330163</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.696234734446621</v>
+        <v>-1.557588567733931</v>
       </c>
       <c r="G23" t="n">
-        <v>1.673252569367747</v>
+        <v>1.673248189223475</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.690779364434464</v>
       </c>
       <c r="E24" t="n">
-        <v>5.987281484393225</v>
+        <v>6.176112424086629</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.839293896514082</v>
+        <v>-1.702124568445346</v>
       </c>
       <c r="G24" t="n">
-        <v>1.833148275995523</v>
+        <v>1.815861306599164</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.680263046259681</v>
       </c>
       <c r="E25" t="n">
-        <v>6.092790399634652</v>
+        <v>6.32059294297059</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.026308536382396</v>
+        <v>-1.856991139423986</v>
       </c>
       <c r="G25" t="n">
-        <v>1.845872595107792</v>
+        <v>1.863790305279424</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.638489810291524</v>
       </c>
       <c r="E26" t="n">
-        <v>6.109331284456556</v>
+        <v>6.402168749905841</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.070285184880566</v>
+        <v>-1.916354504728198</v>
       </c>
       <c r="G26" t="n">
-        <v>1.83645382487334</v>
+        <v>1.876665009345056</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.567336363211636</v>
       </c>
       <c r="E27" t="n">
-        <v>6.102320133524013</v>
+        <v>6.42519078820329</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.124497500520051</v>
+        <v>-1.988910134557815</v>
       </c>
       <c r="G27" t="n">
-        <v>1.931467914437314</v>
+        <v>1.974283824703212</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.470250417683249</v>
       </c>
       <c r="E28" t="n">
-        <v>6.179333290175173</v>
+        <v>6.518373977461264</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.198267890361304</v>
+        <v>-2.065394023776022</v>
       </c>
       <c r="G28" t="n">
-        <v>1.958982520710489</v>
+        <v>2.020609690579654</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.351086360555635</v>
       </c>
       <c r="E29" t="n">
-        <v>6.071318932409748</v>
+        <v>6.421854578315563</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.259387693518879</v>
+        <v>-2.121958476889961</v>
       </c>
       <c r="G29" t="n">
-        <v>1.962854568247579</v>
+        <v>2.034697694608832</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.214179723588822</v>
       </c>
       <c r="E30" t="n">
-        <v>6.030418605239123</v>
+        <v>6.393531105400025</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.369898003495712</v>
+        <v>-2.218268359134617</v>
       </c>
       <c r="G30" t="n">
-        <v>1.986835858140754</v>
+        <v>2.058392815076189</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.065679570654782</v>
       </c>
       <c r="E31" t="n">
-        <v>5.899434770907521</v>
+        <v>6.29798555833096</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.440978984753511</v>
+        <v>-2.252644461411017</v>
       </c>
       <c r="G31" t="n">
-        <v>1.913831993547228</v>
+        <v>2.004241091432477</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.91065974663636</v>
       </c>
       <c r="E32" t="n">
-        <v>5.671935917574491</v>
+        <v>6.103571394737921</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.449707882265009</v>
+        <v>-2.283562439784099</v>
       </c>
       <c r="G32" t="n">
-        <v>1.900557236304686</v>
+        <v>1.965688521592033</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.75394548520754</v>
       </c>
       <c r="E33" t="n">
-        <v>5.487796112397177</v>
+        <v>5.918961454075335</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.500470834289723</v>
+        <v>-2.320834547448817</v>
       </c>
       <c r="G33" t="n">
-        <v>1.892471489977234</v>
+        <v>1.943305984358402</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.598079721877892</v>
       </c>
       <c r="E34" t="n">
-        <v>5.2360224995047</v>
+        <v>5.678176163115036</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.59192240651188</v>
+        <v>-2.410845782229292</v>
       </c>
       <c r="G34" t="n">
-        <v>1.802977842244985</v>
+        <v>1.870167795340513</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.447519839409064</v>
       </c>
       <c r="E35" t="n">
-        <v>5.030544091478755</v>
+        <v>5.478951141062453</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.586599071172427</v>
+        <v>-2.419190687092881</v>
       </c>
       <c r="G35" t="n">
-        <v>1.75902455451627</v>
+        <v>1.807054296514802</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.304406174613231</v>
       </c>
       <c r="E36" t="n">
-        <v>4.836154748703262</v>
+        <v>5.292394956294685</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.545891470349801</v>
+        <v>-2.398479904923341</v>
       </c>
       <c r="G36" t="n">
-        <v>1.66727951262784</v>
+        <v>1.715817351362009</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.169198157259835</v>
       </c>
       <c r="E37" t="n">
-        <v>4.504063890329896</v>
+        <v>4.933347230018872</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.479839624741138</v>
+        <v>-2.339860434121448</v>
       </c>
       <c r="G37" t="n">
-        <v>1.5790371261095</v>
+        <v>1.623498510573852</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.04129461777696</v>
       </c>
       <c r="E38" t="n">
-        <v>4.331570888773761</v>
+        <v>4.722273917708565</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.341489117766856</v>
+        <v>-2.235201996892976</v>
       </c>
       <c r="G38" t="n">
-        <v>1.480616744349436</v>
+        <v>1.542284795565146</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9212646713757554</v>
       </c>
       <c r="E39" t="n">
-        <v>3.99336534899567</v>
+        <v>4.386619081945292</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.307952543142729</v>
+        <v>-2.207970639949438</v>
       </c>
       <c r="G39" t="n">
-        <v>1.376764983691191</v>
+        <v>1.428206858078177</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8087490837118986</v>
       </c>
       <c r="E40" t="n">
-        <v>3.647948631696581</v>
+        <v>4.068752012073559</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.21745365229989</v>
+        <v>-2.155205961992088</v>
       </c>
       <c r="G40" t="n">
-        <v>1.270488083153946</v>
+        <v>1.33489226449202</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7028756478297655</v>
       </c>
       <c r="E41" t="n">
-        <v>3.383017065408834</v>
+        <v>3.780334112195454</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.116686973257735</v>
+        <v>-2.067572415527657</v>
       </c>
       <c r="G41" t="n">
-        <v>1.14463777790998</v>
+        <v>1.21992953786196</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6022109727963981</v>
       </c>
       <c r="E42" t="n">
-        <v>3.050826923765287</v>
+        <v>3.486969569385351</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.006262076094219</v>
+        <v>-1.961229082802277</v>
       </c>
       <c r="G42" t="n">
-        <v>1.048775400405188</v>
+        <v>1.116883723749897</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5070376125600541</v>
       </c>
       <c r="E43" t="n">
-        <v>2.845512041125524</v>
+        <v>3.240615655006327</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.981978556246226</v>
+        <v>-1.919376074252333</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9346186203213094</v>
+        <v>1.020133637005832</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4177680806811952</v>
       </c>
       <c r="E44" t="n">
-        <v>2.586382705951048</v>
+        <v>2.984463357889214</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.943969854319645</v>
+        <v>-1.876263774223981</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8116650504897061</v>
+        <v>0.8968763771713195</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3343857722703715</v>
       </c>
       <c r="E45" t="n">
-        <v>2.33412727718857</v>
+        <v>2.719131738424557</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.803590610523046</v>
+        <v>-1.747759831574789</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7148083802350047</v>
+        <v>0.7804594426427144</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.257293127727324</v>
       </c>
       <c r="E46" t="n">
-        <v>2.128165593244534</v>
+        <v>2.508734428380341</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.737400790369791</v>
+        <v>-1.685985196848441</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7000487540840087</v>
+        <v>0.7535303156539943</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1868186645241929</v>
       </c>
       <c r="E47" t="n">
-        <v>1.81754328199989</v>
+        <v>2.204469166523514</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.701385784111346</v>
+        <v>-1.627943905090548</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5875973101703116</v>
+        <v>0.6315505978990271</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1239149528984297</v>
       </c>
       <c r="E48" t="n">
-        <v>1.674452728898474</v>
+        <v>2.041142346882103</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.623941913273367</v>
+        <v>-1.57527851040338</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5164827478064217</v>
+        <v>0.5654498406793176</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.06825946948717192</v>
       </c>
       <c r="E49" t="n">
-        <v>1.482965961727708</v>
+        <v>1.849984090531791</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.613664634761461</v>
+        <v>-1.540560026849662</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4381672282581699</v>
+        <v>0.4950390214952456</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.01927145384705901</v>
       </c>
       <c r="E50" t="n">
-        <v>1.373882848759737</v>
+        <v>1.748620251820454</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.490221948819403</v>
+        <v>-1.438048590338872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3900177623161828</v>
+        <v>0.4327519098889896</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.02363395048699163</v>
       </c>
       <c r="E51" t="n">
-        <v>1.238488209145501</v>
+        <v>1.583534074229499</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433172029715237</v>
+        <v>-1.377719403222524</v>
       </c>
       <c r="G51" t="n">
-        <v>0.324114111588746</v>
+        <v>0.3635689911493718</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.06068259851101475</v>
       </c>
       <c r="E52" t="n">
-        <v>1.147838203325252</v>
+        <v>1.477914195333163</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.372896864378253</v>
+        <v>-1.326169485276811</v>
       </c>
       <c r="G52" t="n">
-        <v>0.260069102081036</v>
+        <v>0.2865207933440289</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.09284542166848919</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9259371743727662</v>
+        <v>1.269242662132401</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.325855574937266</v>
+        <v>-1.276008073065552</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2267172235404085</v>
+        <v>0.243196786342495</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1213933440398925</v>
       </c>
       <c r="E54" t="n">
-        <v>1.007972896456653</v>
+        <v>1.305806646473028</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.317317213701631</v>
+        <v>-1.26673530764019</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1307365821402525</v>
+        <v>0.1679269271118789</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1476958272258853</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8157269042786141</v>
+        <v>1.139375764590345</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.295368310751001</v>
+        <v>-1.234034610548108</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08487355150862844</v>
+        <v>0.1186240231780739</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1724967333102496</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8024360865070721</v>
+        <v>1.122199758848895</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.25878096564092</v>
+        <v>-1.198412357226118</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0510456972903648</v>
+        <v>0.07933558909981175</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1968328156787894</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7092718778742789</v>
+        <v>1.023947282619285</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.233221363761472</v>
+        <v>-1.170401334602035</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02163448854709997</v>
+        <v>0.05538496021654545</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2215236384871789</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6600857777877467</v>
+        <v>0.9597153869559389</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.224617300361747</v>
+        <v>-1.146560209325586</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07799481303223692</v>
+        <v>-0.0341846100164305</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2469887261132556</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5220031896381474</v>
+        <v>0.8543685370526036</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.162214844956309</v>
+        <v>-1.071404233846061</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1320253526844042</v>
+        <v>-0.1052451506009569</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2732729038000952</v>
       </c>
       <c r="E60" t="n">
-        <v>0.549035980041322</v>
+        <v>0.8498102669127867</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.114853804983413</v>
+        <v>-1.021505630291165</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1539129336152165</v>
+        <v>-0.1290337141461323</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3005990217347835</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4154138388094488</v>
+        <v>0.7301126043239097</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.113666785885504</v>
+        <v>-1.014641944215804</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.208244243174111</v>
+        <v>-0.1708129902674847</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3293603659700242</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3184345245151112</v>
+        <v>0.6655682583691088</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.102068163851326</v>
+        <v>-1.017746006457076</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2677996048022769</v>
+        <v>-0.2414793178674657</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.359600378885685</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2635308761045805</v>
+        <v>0.6130547086833957</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.191709276440756</v>
+        <v>-1.07644723995206</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3021457760928131</v>
+        <v>-0.2693764567404582</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3910986509693611</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1852781386242378</v>
+        <v>0.5363481621313254</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.129537508633682</v>
+        <v>-1.047425864049067</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3588263030299797</v>
+        <v>-0.3209862366578989</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4232137840591333</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1101382236737126</v>
+        <v>0.4779257978217047</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.074225046757697</v>
+        <v>-0.9970950862592628</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.387798037297881</v>
+        <v>-0.3516355661822543</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4556259976763056</v>
       </c>
       <c r="E66" t="n">
-        <v>0.04213648383963992</v>
+        <v>0.4263043375195368</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.137369206593316</v>
+        <v>-1.031377015433799</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4097484002966024</v>
+        <v>-0.3745130597187027</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4878434809923504</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0768593475376306</v>
+        <v>0.4425984742140778</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.123184839390138</v>
+        <v>-1.030499526531163</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4306431485255968</v>
+        <v>-0.3919095327218799</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5190584971630495</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.006855429850801472</v>
+        <v>0.3508913935760116</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.171833641779216</v>
+        <v>-1.065566961578608</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4518299063727729</v>
+        <v>-0.401183758195332</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5482140091550489</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.04598179859097278</v>
+        <v>0.2810120318970303</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.211295821580296</v>
+        <v>-1.101725052549962</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4624444559936791</v>
+        <v>-0.4151505782329646</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5744114322411878</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.118260019283317</v>
+        <v>0.2420287478697681</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.292070062113638</v>
+        <v>-1.178727988864487</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5008860621792143</v>
+        <v>-0.4504180398688642</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5964256973504019</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1681308819244854</v>
+        <v>0.1791006751516031</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.450143628723959</v>
+        <v>-1.303020422795453</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5834897429704649</v>
+        <v>-0.5157741725622103</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6127642660491046</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2164015318580179</v>
+        <v>0.1228596226898001</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.494451708138766</v>
+        <v>-1.338413448567171</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5614108957397435</v>
+        <v>-0.5088652249960303</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6218577405931865</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.210530678484474</v>
+        <v>0.1064413819075317</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.509281416598125</v>
+        <v>-1.33654750710699</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5905782764518266</v>
+        <v>-0.5352176329888414</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6226517342968285</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.185232425213299</v>
+        <v>0.1618341464285169</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.555832129880567</v>
+        <v>-1.375669495702889</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5984917371045517</v>
+        <v>-0.5454934514526568</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6139578591073964</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.1179183680300444</v>
+        <v>0.1825361683095113</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.61911061414055</v>
+        <v>-1.43936263362069</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5855279701053734</v>
+        <v>-0.5101851084702118</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5946463048404143</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.0745856007399651</v>
+        <v>0.2238263283204093</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.531006932190847</v>
+        <v>-1.366874166003254</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.590058499331463</v>
+        <v>-0.5109530937660297</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5646209218001965</v>
       </c>
       <c r="E77" t="n">
-        <v>0.05632815128327247</v>
+        <v>0.3518696257969204</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.529468041503029</v>
+        <v>-1.359223514006893</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4859234893435819</v>
+        <v>-0.4389668826918672</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5240816934613782</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2140104250052301</v>
+        <v>0.4494183588467124</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.479461394389406</v>
+        <v>-1.310526530030815</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.509014149901303</v>
+        <v>-0.4563618956469535</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.473993450138914</v>
       </c>
       <c r="E79" t="n">
-        <v>0.300416071025207</v>
+        <v>0.5265074379986008</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.432770516490237</v>
+        <v>-1.281264246192823</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4527336761410454</v>
+        <v>-0.4089409937023299</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4155100950232682</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4560557374679833</v>
+        <v>0.6424308762724787</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.444259634917597</v>
+        <v>-1.29232995067382</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4164777619476006</v>
+        <v>-0.3728924063377941</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3508050603123508</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4983693911906083</v>
+        <v>0.6850905613926491</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.383585876451795</v>
+        <v>-1.244168804347106</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.325957700407443</v>
+        <v>-0.289418536884362</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2825815919434675</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6327799583915722</v>
+        <v>0.7870354992441672</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.307669215916907</v>
+        <v>-1.174416466852033</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2971246707081781</v>
+        <v>-0.2738004024559116</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2137512998792</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7938422434439836</v>
+        <v>0.9112067491835883</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.277411179280915</v>
+        <v>-1.13771231789468</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2393286670295572</v>
+        <v>-0.2133208303862006</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1473086540522022</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026278979420467</v>
+        <v>1.108491367323354</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.227290648416201</v>
+        <v>-1.065396135951972</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2071141659517477</v>
+        <v>-0.1814874018601182</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08626750660947609</v>
       </c>
       <c r="E85" t="n">
-        <v>1.115835409220624</v>
+        <v>1.188570624965423</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.081263938603968</v>
+        <v>-0.9618816464027269</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1580288091834882</v>
+        <v>-0.1262362620039512</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.0335801209824293</v>
       </c>
       <c r="E86" t="n">
-        <v>1.33216051451393</v>
+        <v>1.365845284019285</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.001806661448625</v>
+        <v>-0.878371275747022</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07401034179214708</v>
+        <v>-0.05679053460796988</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.008413271305728259</v>
       </c>
       <c r="E87" t="n">
-        <v>1.455952151949715</v>
+        <v>1.461677000514168</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9126327642482855</v>
+        <v>-0.7836462757050474</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0225874480303427</v>
+        <v>-0.01570770142598091</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03785943318537487</v>
       </c>
       <c r="E88" t="n">
-        <v>1.587032349455316</v>
+        <v>1.545142109679055</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7815029251075934</v>
+        <v>-0.6522317271866281</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0003085742111668663</v>
+        <v>0.02129429734191824</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05341531044345247</v>
       </c>
       <c r="E89" t="n">
-        <v>1.711780318390646</v>
+        <v>1.624682609575579</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.683386233350438</v>
+        <v>-0.5497889129361102</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06842172962026923</v>
+        <v>0.06853999351563282</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05357041348702819</v>
       </c>
       <c r="E90" t="n">
-        <v>1.759237721537543</v>
+        <v>1.663952063028659</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5940064693692801</v>
+        <v>-0.4491142169236827</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06464750530527023</v>
+        <v>0.08090076065326587</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.03741485463108715</v>
       </c>
       <c r="E91" t="n">
-        <v>1.759328244519179</v>
+        <v>1.671249383387021</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4091322600022389</v>
+        <v>-0.2778096945135469</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1063508589258954</v>
+        <v>0.1092665749634401</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.005392099339195247</v>
       </c>
       <c r="E92" t="n">
-        <v>1.748861159755454</v>
+        <v>1.673876009902565</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2635523249058235</v>
+        <v>-0.1345964973724944</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1206359694473461</v>
+        <v>0.1329456349017974</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0403368181978169</v>
       </c>
       <c r="E93" t="n">
-        <v>1.765822538427541</v>
+        <v>1.686741953679653</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08586885238650753</v>
+        <v>0.02875368303837078</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1054281085324411</v>
+        <v>0.1180969458172559</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.0963526660671285</v>
       </c>
       <c r="E94" t="n">
-        <v>1.717379602819281</v>
+        <v>1.63013150905085</v>
       </c>
       <c r="F94" t="n">
-        <v>0.002813008607195932</v>
+        <v>0.1320360249411612</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03970842386445875</v>
+        <v>0.05641283407254517</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1569474774381961</v>
       </c>
       <c r="E95" t="n">
-        <v>1.651505153053662</v>
+        <v>1.556225334737142</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1417453447457041</v>
+        <v>0.2219472464274098</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02070151781700931</v>
+        <v>0.01846618418982809</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2165385482817188</v>
       </c>
       <c r="E96" t="n">
-        <v>1.538183520477784</v>
+        <v>1.441389632290991</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1799650236214211</v>
+        <v>0.2732796172075779</v>
       </c>
       <c r="G96" t="n">
-        <v>0.003081657455923132</v>
+        <v>-0.005602708588801808</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2691493929336504</v>
       </c>
       <c r="E97" t="n">
-        <v>1.383177514906462</v>
+        <v>1.304442961556119</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2609787120416721</v>
+        <v>0.3316070783912894</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04448378924970046</v>
+        <v>-0.03848883178842934</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3111200618405312</v>
       </c>
       <c r="E98" t="n">
-        <v>1.276283014026763</v>
+        <v>1.188122390201514</v>
       </c>
       <c r="F98" t="n">
-        <v>0.314120082406476</v>
+        <v>0.3479231158071941</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04273757173297366</v>
+        <v>-0.04939977117179005</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3413431171240331</v>
       </c>
       <c r="E99" t="n">
-        <v>1.095444377582993</v>
+        <v>1.04055240955719</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3200551778960198</v>
+        <v>0.3519805894518295</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1018505387895941</v>
+        <v>-0.09752587634432258</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3595327494275242</v>
       </c>
       <c r="E100" t="n">
-        <v>1.019459094787832</v>
+        <v>0.9509711589394868</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2998729331353889</v>
+        <v>0.3089646525974774</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.156431516572034</v>
+        <v>-0.1363383347449485</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3669149345163327</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8913719958685937</v>
+        <v>0.8292790706584285</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3379904086447423</v>
+        <v>0.3443766589943769</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09273837865423296</v>
+        <v>-0.09892022227114039</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.362864969853818</v>
       </c>
       <c r="E102" t="n">
-        <v>0.748145658294723</v>
+        <v>0.6919527874199199</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2717086054617601</v>
+        <v>0.2847176339517566</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2030391717300215</v>
+        <v>-0.1934495758689332</v>
       </c>
     </row>
   </sheetData>
